--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -896,30 +896,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>itukiyu_modEX_scope3</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope1</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope2</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope4</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope5</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope6</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>itukiyu_modEX_IDEnd</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -928,57 +904,70 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>eleFire</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>eleCold</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>eleLightning</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>eleDarkness</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>eleMind</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>elePoison</t>
-  </si>
-  <si>
-    <t>eleNether</t>
-  </si>
-  <si>
-    <t>eleSound</t>
-  </si>
-  <si>
-    <t>eleNerve</t>
-  </si>
-  <si>
-    <t>eleHoly</t>
-  </si>
-  <si>
-    <t>eleChaos</t>
-  </si>
-  <si>
-    <t>eleMagic</t>
-  </si>
-  <si>
-    <t>eleEther</t>
-  </si>
-  <si>
-    <t>eleAcid</t>
-  </si>
-  <si>
-    <t>eleCut</t>
-  </si>
-  <si>
-    <t>eleImpact</t>
+    <t>itukiyu_modEX_scope1</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_scope2</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_scope3</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_scope4</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_scope5</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_scope6</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleFire</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleCold</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleLightning</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleDarkness</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleMind</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_elePoison</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleNether</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleSound</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleNerve</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleHoly</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleChaos</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleMagic</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleEther</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleAcid</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleCut</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleImpact</t>
   </si>
 </sst>
 </file>
@@ -988,7 +977,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,6 +1179,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1629,7 +1624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1678,6 +1673,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2494,10 +2492,10 @@
   <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2944,7 +2942,7 @@
         <v>4000000</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -3013,7 +3011,7 @@
         <v>4199999</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -3081,8 +3079,8 @@
       <c r="A6" s="17">
         <v>4000001</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>221</v>
+      <c r="B6" s="21" t="s">
+        <v>222</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>187</v>
@@ -3112,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -3182,8 +3180,8 @@
       <c r="A7" s="16">
         <v>4000002</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>222</v>
+      <c r="B7" s="21" t="s">
+        <v>223</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>190</v>
@@ -3213,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="P7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3283,8 +3281,8 @@
       <c r="A8" s="17">
         <v>4000003</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>220</v>
+      <c r="B8" s="21" t="s">
+        <v>224</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>193</v>
@@ -3314,10 +3312,10 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3384,8 +3382,8 @@
       <c r="A9" s="16">
         <v>4000004</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>223</v>
+      <c r="B9" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>194</v>
@@ -3415,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="P9">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3485,8 +3483,8 @@
       <c r="A10" s="17">
         <v>4000005</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>224</v>
+      <c r="B10" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>196</v>
@@ -3516,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q10">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -3586,8 +3584,8 @@
       <c r="A11" s="16">
         <v>4000006</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>225</v>
+      <c r="B11" s="21" t="s">
+        <v>227</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>198</v>
@@ -3617,10 +3615,10 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3687,7 +3685,7 @@
       <c r="A12" s="16">
         <v>4001000</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="21" t="s">
         <v>228</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -3785,7 +3783,7 @@
       <c r="A13" s="16">
         <v>4001001</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="21" t="s">
         <v>229</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -3883,7 +3881,7 @@
       <c r="A14" s="16">
         <v>4001002</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="21" t="s">
         <v>230</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -3981,7 +3979,7 @@
       <c r="A15" s="16">
         <v>4001003</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="21" t="s">
         <v>231</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -4079,7 +4077,7 @@
       <c r="A16" s="16">
         <v>4001004</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="21" t="s">
         <v>232</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -4177,7 +4175,7 @@
       <c r="A17" s="16">
         <v>4001005</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="21" t="s">
         <v>233</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -4275,7 +4273,7 @@
       <c r="A18" s="16">
         <v>4001006</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -4373,7 +4371,7 @@
       <c r="A19" s="16">
         <v>4001007</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="21" t="s">
         <v>235</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -4471,7 +4469,7 @@
       <c r="A20" s="16">
         <v>4001008</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="21" t="s">
         <v>236</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -4569,7 +4567,7 @@
       <c r="A21" s="16">
         <v>4001009</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>237</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -4667,7 +4665,7 @@
       <c r="A22" s="16">
         <v>4001010</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4765,7 +4763,7 @@
       <c r="A23" s="16">
         <v>4001011</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="21" t="s">
         <v>239</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -4863,7 +4861,7 @@
       <c r="A24" s="16">
         <v>4001012</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="21" t="s">
         <v>240</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -4961,7 +4959,7 @@
       <c r="A25" s="16">
         <v>4001013</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="21" t="s">
         <v>241</v>
       </c>
       <c r="C25" s="9" t="s">
@@ -5059,7 +5057,7 @@
       <c r="A26" s="16">
         <v>4001014</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="21" t="s">
         <v>242</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -5157,7 +5155,7 @@
       <c r="A27" s="16">
         <v>4001015</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="21" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="9" t="s">

--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -340,380 +340,612 @@
     <t>enchant</t>
   </si>
   <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>resFire</t>
+  </si>
+  <si>
+    <t>eleAttack</t>
+  </si>
+  <si>
+    <t>冷気</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>resCold</t>
+  </si>
+  <si>
+    <t>電撃</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>resLightning</t>
+  </si>
+  <si>
+    <t>暗黒</t>
+  </si>
+  <si>
+    <t>Darkness</t>
+  </si>
+  <si>
+    <t>resDarkness</t>
+  </si>
+  <si>
+    <t>幻惑</t>
+  </si>
+  <si>
+    <t>Mind</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>resMind</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>resPoison</t>
+  </si>
+  <si>
+    <t>地獄</t>
+  </si>
+  <si>
+    <t>Nether</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>resNether</t>
+  </si>
+  <si>
+    <t>轟音</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>resSound</t>
+  </si>
+  <si>
+    <t>神経</t>
+  </si>
+  <si>
+    <t>Nerve</t>
+  </si>
+  <si>
+    <t>LER</t>
+  </si>
+  <si>
+    <t>resNerve</t>
+  </si>
+  <si>
+    <t>神聖</t>
+  </si>
+  <si>
+    <t>Holy</t>
+  </si>
+  <si>
+    <t>WIL</t>
+  </si>
+  <si>
+    <t>resHoly</t>
+  </si>
+  <si>
+    <t>混沌</t>
+  </si>
+  <si>
+    <t>Chaos</t>
+  </si>
+  <si>
+    <t>resChaos</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>resMagic</t>
+  </si>
+  <si>
+    <t>エーテル</t>
+  </si>
+  <si>
+    <t>Ether</t>
+  </si>
+  <si>
+    <t>resEther</t>
+  </si>
+  <si>
+    <t>酸</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>resAcid</t>
+  </si>
+  <si>
+    <t>出血</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>resCut</t>
+  </si>
+  <si>
+    <t>衝撃</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>resImpact</t>
+  </si>
+  <si>
+    <t>それは火炎の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは冷気の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは電撃の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは暗黒の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは幻惑の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは毒の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは地獄の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは轟音の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは神経の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは神聖の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは混沌の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは魔法の力を秘めている</t>
+  </si>
+  <si>
+    <t>それはエーテルの力を秘めている</t>
+  </si>
+  <si>
+    <t>それは酸の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは出血の力を秘めている</t>
+  </si>
+  <si>
+    <t>それは衝撃の力を秘めている</t>
+  </si>
+  <si>
+    <t>It holds the power of fire</t>
+  </si>
+  <si>
+    <t>It holds the power of cold air</t>
+  </si>
+  <si>
+    <t>It has the power of electric shock</t>
+  </si>
+  <si>
+    <t>It has the power of darkness</t>
+  </si>
+  <si>
+    <t>It has the power of illusion</t>
+  </si>
+  <si>
+    <t>It has the power of poison</t>
+  </si>
+  <si>
+    <t>It has the power of hell</t>
+  </si>
+  <si>
+    <t>It has the power of roar</t>
+  </si>
+  <si>
+    <t>It has the power of nerves</t>
+  </si>
+  <si>
+    <t>It has the power of holiness</t>
+  </si>
+  <si>
+    <t>It has the power of chaos</t>
+  </si>
+  <si>
+    <t>It has the power of magic</t>
+  </si>
+  <si>
+    <t>It has the power of ether</t>
+  </si>
+  <si>
+    <t>It has the power of acid</t>
+  </si>
+  <si>
+    <t>It has the power of bleeding</t>
+  </si>
+  <si>
+    <t>It has the power of shock</t>
+  </si>
+  <si>
+    <t>炎,レッド,燃える</t>
+  </si>
+  <si>
+    <t>fire,red,burning</t>
+  </si>
+  <si>
+    <t>氷,ブルー,冷たい</t>
+  </si>
+  <si>
+    <t>ice,blue,chilly</t>
+  </si>
+  <si>
+    <t>雷,イエロー,放電する</t>
+  </si>
+  <si>
+    <t>lightning,yellow,electric</t>
+  </si>
+  <si>
+    <t>闇,ブラック,暗黒の</t>
+  </si>
+  <si>
+    <t>shadow,black,gloomy</t>
+  </si>
+  <si>
+    <t>狂気,マッド,幻惑の</t>
+  </si>
+  <si>
+    <t>mind,mad,disturbing</t>
+  </si>
+  <si>
+    <t>毒,グリーン,毒の</t>
+  </si>
+  <si>
+    <t>poison,green,poisonous</t>
+  </si>
+  <si>
+    <t>死,ヘル,地獄の</t>
+  </si>
+  <si>
+    <t>death,hell,infernal</t>
+  </si>
+  <si>
+    <t>轟音,サウンド,震える</t>
+  </si>
+  <si>
+    <t>sound,sound,vibrating</t>
+  </si>
+  <si>
+    <t>神経,ナーブ,痺れる</t>
+  </si>
+  <si>
+    <t>nerve,nerve,numb</t>
+  </si>
+  <si>
+    <t>光,ホワイト,輝く</t>
+  </si>
+  <si>
+    <t>light,white,shining</t>
+  </si>
+  <si>
+    <t>混沌,カオス,混沌の</t>
+  </si>
+  <si>
+    <t>chaos,chaos,chaotic</t>
+  </si>
+  <si>
+    <t>魔力,マジック,魔力を帯びた</t>
+  </si>
+  <si>
+    <t>magic,magic,magical</t>
+  </si>
+  <si>
+    <t>エーテル,エーテル,エーテルの</t>
+  </si>
+  <si>
+    <t>ether,ether,ethereal</t>
+  </si>
+  <si>
+    <t>酸,アシッド,酸の</t>
+  </si>
+  <si>
+    <t>acid,acid,acid</t>
+  </si>
+  <si>
+    <t>血,ブラッド,出血の</t>
+  </si>
+  <si>
+    <t>blood,blood,bleeding</t>
+  </si>
+  <si>
+    <t>衝撃,インパクト,爆発する</t>
+  </si>
+  <si>
+    <t>impact,impact,exploding</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>????</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>？？？</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>eleAttack</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>modRanged</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_IDEnd</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_IDStart</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleFire</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleCold</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleLightning</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleDarkness</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleMind</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_elePoison</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleNether</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleSound</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleNerve</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleHoly</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleChaos</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleMagic</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleEther</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleAcid</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleCut</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleImpact</t>
+  </si>
+  <si>
     <t>火炎</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>MAG</t>
-  </si>
-  <si>
-    <t>resFire</t>
-  </si>
-  <si>
-    <t>eleAttack</t>
-  </si>
-  <si>
-    <t>冷気</t>
-  </si>
-  <si>
-    <t>Cold</t>
-  </si>
-  <si>
-    <t>resCold</t>
-  </si>
-  <si>
-    <t>電撃</t>
-  </si>
-  <si>
-    <t>Lightning</t>
-  </si>
-  <si>
-    <t>resLightning</t>
-  </si>
-  <si>
-    <t>暗黒</t>
-  </si>
-  <si>
-    <t>Darkness</t>
-  </si>
-  <si>
-    <t>resDarkness</t>
-  </si>
-  <si>
-    <t>幻惑</t>
-  </si>
-  <si>
-    <t>Mind</t>
-  </si>
-  <si>
-    <t>CHA</t>
-  </si>
-  <si>
-    <t>resMind</t>
-  </si>
-  <si>
-    <t>毒</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>DEX</t>
-  </si>
-  <si>
-    <t>resPoison</t>
-  </si>
-  <si>
-    <t>地獄</t>
-  </si>
-  <si>
-    <t>Nether</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>resNether</t>
-  </si>
-  <si>
-    <t>轟音</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>resSound</t>
-  </si>
-  <si>
-    <t>神経</t>
-  </si>
-  <si>
-    <t>Nerve</t>
-  </si>
-  <si>
-    <t>LER</t>
-  </si>
-  <si>
-    <t>resNerve</t>
-  </si>
-  <si>
-    <t>神聖</t>
-  </si>
-  <si>
-    <t>Holy</t>
-  </si>
-  <si>
-    <t>WIL</t>
-  </si>
-  <si>
-    <t>resHoly</t>
-  </si>
-  <si>
-    <t>混沌</t>
-  </si>
-  <si>
-    <t>Chaos</t>
-  </si>
-  <si>
-    <t>resChaos</t>
-  </si>
-  <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>resMagic</t>
-  </si>
-  <si>
-    <t>エーテル</t>
-  </si>
-  <si>
-    <t>Ether</t>
-  </si>
-  <si>
-    <t>resEther</t>
-  </si>
-  <si>
-    <t>酸</t>
-  </si>
-  <si>
-    <t>Acid</t>
-  </si>
-  <si>
-    <t>resAcid</t>
-  </si>
-  <si>
-    <t>出血</t>
-  </si>
-  <si>
-    <t>Cut</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>resCut</t>
-  </si>
-  <si>
-    <t>衝撃</t>
-  </si>
-  <si>
-    <t>Impact</t>
-  </si>
-  <si>
-    <t>resImpact</t>
-  </si>
-  <si>
-    <t>それは火炎の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは冷気の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは電撃の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは暗黒の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは幻惑の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは毒の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは地獄の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは轟音の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは神経の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは神聖の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは混沌の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは魔法の力を秘めている</t>
-  </si>
-  <si>
-    <t>それはエーテルの力を秘めている</t>
-  </si>
-  <si>
-    <t>それは酸の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは出血の力を秘めている</t>
-  </si>
-  <si>
-    <t>それは衝撃の力を秘めている</t>
-  </si>
-  <si>
-    <t>It holds the power of fire</t>
-  </si>
-  <si>
-    <t>It holds the power of cold air</t>
-  </si>
-  <si>
-    <t>It has the power of electric shock</t>
-  </si>
-  <si>
-    <t>It has the power of darkness</t>
-  </si>
-  <si>
-    <t>It has the power of illusion</t>
-  </si>
-  <si>
-    <t>It has the power of poison</t>
-  </si>
-  <si>
-    <t>It has the power of hell</t>
-  </si>
-  <si>
-    <t>It has the power of roar</t>
-  </si>
-  <si>
-    <t>It has the power of nerves</t>
-  </si>
-  <si>
-    <t>It has the power of holiness</t>
-  </si>
-  <si>
-    <t>It has the power of chaos</t>
-  </si>
-  <si>
-    <t>It has the power of magic</t>
-  </si>
-  <si>
-    <t>It has the power of ether</t>
-  </si>
-  <si>
-    <t>It has the power of acid</t>
-  </si>
-  <si>
-    <t>It has the power of bleeding</t>
-  </si>
-  <si>
-    <t>It has the power of shock</t>
-  </si>
-  <si>
-    <t>炎,レッド,燃える</t>
-  </si>
-  <si>
-    <t>fire,red,burning</t>
-  </si>
-  <si>
-    <t>氷,ブルー,冷たい</t>
-  </si>
-  <si>
-    <t>ice,blue,chilly</t>
-  </si>
-  <si>
-    <t>雷,イエロー,放電する</t>
-  </si>
-  <si>
-    <t>lightning,yellow,electric</t>
-  </si>
-  <si>
-    <t>闇,ブラック,暗黒の</t>
-  </si>
-  <si>
-    <t>shadow,black,gloomy</t>
-  </si>
-  <si>
-    <t>狂気,マッド,幻惑の</t>
-  </si>
-  <si>
-    <t>mind,mad,disturbing</t>
-  </si>
-  <si>
-    <t>毒,グリーン,毒の</t>
-  </si>
-  <si>
-    <t>poison,green,poisonous</t>
-  </si>
-  <si>
-    <t>死,ヘル,地獄の</t>
-  </si>
-  <si>
-    <t>death,hell,infernal</t>
-  </si>
-  <si>
-    <t>轟音,サウンド,震える</t>
-  </si>
-  <si>
-    <t>sound,sound,vibrating</t>
-  </si>
-  <si>
-    <t>神経,ナーブ,痺れる</t>
-  </si>
-  <si>
-    <t>nerve,nerve,numb</t>
-  </si>
-  <si>
-    <t>光,ホワイト,輝く</t>
-  </si>
-  <si>
-    <t>light,white,shining</t>
-  </si>
-  <si>
-    <t>混沌,カオス,混沌の</t>
-  </si>
-  <si>
-    <t>chaos,chaos,chaotic</t>
-  </si>
-  <si>
-    <t>魔力,マジック,魔力を帯びた</t>
-  </si>
-  <si>
-    <t>magic,magic,magical</t>
-  </si>
-  <si>
-    <t>エーテル,エーテル,エーテルの</t>
-  </si>
-  <si>
-    <t>ether,ether,ethereal</t>
-  </si>
-  <si>
-    <t>酸,アシッド,酸の</t>
-  </si>
-  <si>
-    <t>acid,acid,acid</t>
-  </si>
-  <si>
-    <t>血,ブラッド,出血の</t>
-  </si>
-  <si>
-    <t>blood,blood,bleeding</t>
-  </si>
-  <si>
-    <t>衝撃,インパクト,爆発する</t>
-  </si>
-  <si>
-    <t>impact,impact,exploding</t>
-  </si>
-  <si>
-    <t>短銃身</t>
-    <rPh sb="0" eb="2">
-      <t>タンジュウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミ</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_plus1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_plus2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_plus3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_minus1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_minus2</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_minus3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_plus4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_plus5</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_minus4</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_barrel_minus5</t>
+  </si>
+  <si>
+    <t>短銃身-1</t>
+    <rPh sb="0" eb="3">
+      <t>タンジュウシン</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身が切り詰められている</t>
+    <t>短銃身-2</t>
+    <rPh sb="0" eb="3">
+      <t>タンジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>短銃身-3</t>
+    <rPh sb="0" eb="3">
+      <t>タンジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>短銃身-4</t>
+    <rPh sb="0" eb="3">
+      <t>タンジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>短銃身-5</t>
+    <rPh sb="0" eb="3">
+      <t>タンジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>長銃身+1</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>長銃身+2</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>長銃身+3</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>長銃身+4</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>長銃身+5</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジュウシン</t>
+    </rPh>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Short Barrel-1</t>
+  </si>
+  <si>
+    <t>Short Barrel-2</t>
+  </si>
+  <si>
+    <t>Short Barrel-3</t>
+  </si>
+  <si>
+    <t>Short Barrel-4</t>
+  </si>
+  <si>
+    <t>Short Barrel-5</t>
+  </si>
+  <si>
+    <t>Long Barrel+1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>Long Barrel+4</t>
+  </si>
+  <si>
+    <t>Long Barrel+5</t>
+  </si>
+  <si>
+    <t>Long Barrel+2</t>
+  </si>
+  <si>
+    <t>Long Barrel+3</t>
+  </si>
+  <si>
+    <t>それは銃身を切り詰め、適正距離を-1する</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -723,251 +955,200 @@
     <rPh sb="8" eb="9">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>SingleBarreled</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>アイアンサイト</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>IronSight</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>DotSight</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>ダットサイト</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>レーザーサイト</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>LaserSight</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>スコープ</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>Scope</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>光学スコープ</t>
-    <rPh sb="0" eb="2">
-      <t>コウガク</t>
+    <rPh sb="11" eb="13">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョリ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>OpticalScopes</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>それはシンプルな照準器が付いている</t>
-    <rPh sb="8" eb="11">
-      <t>ショウジュンキ</t>
+    <t>それは銃身を切り詰め、適正距離を-2する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
       <t>ツ</t>
     </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは少し精度の高い照準器が付いている</t>
-    <rPh sb="3" eb="4">
-      <t>スコ</t>
+    <t>それは銃身を切り詰め、適正距離を-3する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイド</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ショウジュンキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
-    <t>それは光線で照準を合わせられる</t>
-    <rPh sb="3" eb="5">
-      <t>コウセン</t>
+    <rPh sb="11" eb="13">
+      <t>テキセイ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ア</t>
+    <rPh sb="13" eb="15">
+      <t>キョリ</t>
     </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは遠くまで見える照準器が付いている</t>
-    <rPh sb="3" eb="4">
-      <t>トオ</t>
+    <t>それは銃身を切り詰め、適正距離を-4する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミ</t>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
     </rPh>
-    <rPh sb="10" eb="13">
-      <t>ショウジュンキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="8" eb="9">
       <t>ツ</t>
     </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それはとても遠くまで見える照準器が付いている</t>
+    <t>それは銃身を切り詰め、適正距離を-5する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
+    </rPh>
     <rPh sb="6" eb="7">
-      <t>トオ</t>
+      <t>キ</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ショウジュンキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="8" eb="9">
       <t>ツ</t>
     </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>It has a truncated barrel</t>
-  </si>
-  <si>
-    <t>It has simple sights</t>
-  </si>
-  <si>
-    <t>It has slightly more accurate sights</t>
-  </si>
-  <si>
-    <t>It can be sighted in with a beam of light</t>
-  </si>
-  <si>
-    <t>It has sights that can see far</t>
-  </si>
-  <si>
-    <t>It has sights that can see very far</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>????</t>
+    <t>それは銃身を伸ばし、適正距離を+1する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>？？？</t>
+    <t>それは銃身を伸ばし、適正距離を+2する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>eleAttack</t>
+    <t>それは銃身を伸ばし、適正距離を+3する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>modRanged</t>
+    <t>それは銃身を伸ばし、適正距離を+4する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>itukiyu_modEX_IDEnd</t>
+    <t>それは銃身を伸ばし、適正距離を+5する</t>
+    <rPh sb="3" eb="5">
+      <t>ジュウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>itukiyu_modEX_IDStart</t>
+    <t>It truncates the barrel, -3 to the proper distance</t>
+  </si>
+  <si>
+    <t>It truncates the barrel, -1 to the proper distance</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>itukiyu_modEX_scope1</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope2</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope3</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope4</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope5</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_scope6</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleFire</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleCold</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleLightning</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleDarkness</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleMind</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_elePoison</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleNether</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleSound</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleNerve</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleHoly</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleChaos</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleMagic</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleEther</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleAcid</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleCut</t>
-  </si>
-  <si>
-    <t>itukiyu_modEX_eleImpact</t>
+    <t>It truncates the barrel, -4 to the proper distance</t>
+  </si>
+  <si>
+    <t>It truncates the barrel, -5 to the proper distance</t>
+  </si>
+  <si>
+    <t>It truncates the barrel, -2 to the proper distance</t>
+  </si>
+  <si>
+    <t>It lengthens the barrel, +1 the proper distance</t>
+  </si>
+  <si>
+    <t>It lengthens the barrel, +2 the proper distance</t>
+  </si>
+  <si>
+    <t>It lengthens the barrel, +3 the proper distance</t>
+  </si>
+  <si>
+    <t>It lengthens the barrel, +4 the proper distance</t>
+  </si>
+  <si>
+    <t>It lengthens the barrel, +5 the proper distance</t>
   </si>
 </sst>
 </file>
@@ -2489,19 +2670,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="12" customWidth="1"/>
@@ -2650,7 +2831,7 @@
         <v>47</v>
       </c>
       <c r="AP1" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="AQ1" s="7" t="s">
         <v>48</v>
@@ -2700,175 +2881,175 @@
     </row>
     <row r="2" spans="1:63" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="X2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="Z2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AD2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AE2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AF2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AG2" s="13" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="AH2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AI2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AJ2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AK2" s="13" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AM2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AP2" s="13" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="AR2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AS2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AT2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AU2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AV2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AW2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AX2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AY2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="AZ2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="BA2" s="13" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="BB2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="BD2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="BE2" s="13" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.4">
@@ -2913,7 +3094,7 @@
       <c r="AN3" s="8"/>
       <c r="AO3" s="8"/>
       <c r="AP3" s="8" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="AQ3" s="8"/>
       <c r="AR3" s="8"/>
@@ -2942,7 +3123,7 @@
         <v>4000000</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -3011,7 +3192,7 @@
         <v>4199999</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -3080,16 +3261,16 @@
         <v>4000001</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>239</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -3138,7 +3319,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
       <c r="AB6" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="AC6"/>
       <c r="AD6">
@@ -3170,10 +3351,10 @@
       <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6" s="10" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
@@ -3181,16 +3362,16 @@
         <v>4000002</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>242</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -3239,7 +3420,7 @@
       <c r="Z7"/>
       <c r="AA7"/>
       <c r="AB7" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="AC7"/>
       <c r="AD7">
@@ -3271,10 +3452,10 @@
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7" s="10" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
@@ -3282,16 +3463,16 @@
         <v>4000003</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>243</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -3340,7 +3521,7 @@
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="AC8"/>
       <c r="AD8">
@@ -3372,10 +3553,10 @@
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8" s="10" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.4">
@@ -3383,16 +3564,16 @@
         <v>4000004</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>240</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -3441,7 +3622,7 @@
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="AC9"/>
       <c r="AD9">
@@ -3473,10 +3654,10 @@
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9" s="10" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
@@ -3484,16 +3665,16 @@
         <v>4000005</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>241</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -3542,7 +3723,7 @@
       <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="AC10"/>
       <c r="AD10">
@@ -3574,24 +3755,24 @@
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10" s="10" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="33.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
-        <v>4000006</v>
+        <v>4000011</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -3643,7 +3824,7 @@
       <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="AC11"/>
       <c r="AD11">
@@ -3675,428 +3856,450 @@
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11" s="10" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>210</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
     </row>
-    <row r="12" spans="1:63" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A12" s="16">
-        <v>4001000</v>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A12" s="17">
+        <v>4000012</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
+        <v>235</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>100</v>
       </c>
       <c r="M12"/>
-      <c r="N12" s="12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12">
-        <v>1</v>
-      </c>
-      <c r="P12" s="12">
-        <v>150</v>
-      </c>
-      <c r="Q12" s="12">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>300</v>
+      </c>
+      <c r="Q12">
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC12"/>
+      <c r="AD12">
         <v>50</v>
       </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <v>1</v>
-      </c>
-      <c r="T12" s="12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD12" s="12">
-        <v>100</v>
-      </c>
-      <c r="AE12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="12">
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
         <v>10</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12">
         <v>5</v>
       </c>
-      <c r="AH12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
       <c r="AT12" s="10" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>139</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
-        <v>4001001</v>
+        <v>4000013</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
+        <v>236</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>100</v>
       </c>
       <c r="M13"/>
-      <c r="N13" s="12">
-        <v>1</v>
-      </c>
-      <c r="O13" s="12">
-        <v>1</v>
-      </c>
-      <c r="P13" s="12">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="12">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>300</v>
+      </c>
+      <c r="Q13">
+        <v>60</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC13"/>
+      <c r="AD13">
         <v>50</v>
       </c>
-      <c r="R13" s="12">
-        <v>0</v>
-      </c>
-      <c r="S13" s="12">
-        <v>1</v>
-      </c>
-      <c r="T13" s="12">
-        <v>0</v>
-      </c>
-      <c r="W13" s="12" t="s">
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
+        <v>4000014</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>300</v>
+      </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14" t="s">
         <v>63</v>
       </c>
-      <c r="X13" s="12" t="s">
+      <c r="X14" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="12" t="s">
+      <c r="Y14" t="s">
         <v>65</v>
       </c>
-      <c r="Z13" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD13" s="12">
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC14"/>
+      <c r="AD14">
+        <v>50</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+      <c r="AO14"/>
+      <c r="AP14"/>
+      <c r="AQ14"/>
+      <c r="AR14"/>
+      <c r="AS14"/>
+      <c r="AT14" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+      <c r="A15" s="16">
+        <v>4000015</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>100</v>
       </c>
-      <c r="AE13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="12">
+      <c r="M15"/>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>300</v>
+      </c>
+      <c r="Q15">
+        <v>60</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15" t="s">
+        <v>63</v>
+      </c>
+      <c r="X15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC15"/>
+      <c r="AD15">
+        <v>50</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <v>10</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG15">
         <v>5</v>
       </c>
-      <c r="AH13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU13" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A14" s="16">
-        <v>4001002</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="12">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <v>100</v>
-      </c>
-      <c r="M14"/>
-      <c r="N14" s="12">
-        <v>1</v>
-      </c>
-      <c r="O14" s="12">
-        <v>1</v>
-      </c>
-      <c r="P14" s="12">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="12">
-        <v>50</v>
-      </c>
-      <c r="R14" s="12">
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
-        <v>1</v>
-      </c>
-      <c r="T14" s="12">
-        <v>0</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>100</v>
-      </c>
-      <c r="AE14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="12">
-        <v>10</v>
-      </c>
-      <c r="AG14" s="12">
-        <v>5</v>
-      </c>
-      <c r="AH14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU14" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="16">
-        <v>4001003</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>100</v>
-      </c>
-      <c r="M15"/>
-      <c r="N15" s="12">
-        <v>1</v>
-      </c>
-      <c r="O15" s="12">
-        <v>1</v>
-      </c>
-      <c r="P15" s="12">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="12">
-        <v>75</v>
-      </c>
-      <c r="R15" s="12">
-        <v>0</v>
-      </c>
-      <c r="S15" s="12">
-        <v>1</v>
-      </c>
-      <c r="T15" s="12">
-        <v>0</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD15" s="12">
-        <v>125</v>
-      </c>
-      <c r="AE15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="12">
-        <v>10</v>
-      </c>
-      <c r="AG15" s="12">
-        <v>5</v>
-      </c>
-      <c r="AH15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+      <c r="AO15"/>
+      <c r="AP15"/>
+      <c r="AQ15"/>
+      <c r="AR15"/>
+      <c r="AS15"/>
       <c r="AT15" s="10" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>142</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
     </row>
     <row r="16" spans="1:63" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
-        <v>4001004</v>
+        <v>4001000</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="12">
@@ -4109,17 +4312,17 @@
         <v>100</v>
       </c>
       <c r="M16"/>
-      <c r="N16" s="12">
-        <v>1</v>
-      </c>
-      <c r="O16" s="12">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12">
-        <v>100</v>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>15</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
       </c>
       <c r="Q16" s="12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R16" s="12">
         <v>0</v>
@@ -4140,61 +4343,67 @@
         <v>65</v>
       </c>
       <c r="Z16" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD16">
+        <v>100</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>10</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AT16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU16" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A17" s="16">
+        <v>4001001</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AB16" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>150</v>
-      </c>
-      <c r="AE16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>10</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU16" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="16">
-        <v>4001005</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="12">
@@ -4207,17 +4416,17 @@
         <v>100</v>
       </c>
       <c r="M17"/>
-      <c r="N17" s="12">
-        <v>1</v>
-      </c>
-      <c r="O17" s="12">
-        <v>1</v>
-      </c>
-      <c r="P17" s="12">
-        <v>100</v>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
       </c>
       <c r="Q17" s="12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="R17" s="12">
         <v>0</v>
@@ -4238,61 +4447,67 @@
         <v>65</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="AB17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>125</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD17">
+        <v>100</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>10</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17">
         <v>5</v>
       </c>
-      <c r="AH17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+      <c r="AO17"/>
+      <c r="AP17"/>
       <c r="AT17" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AU17" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
-        <v>4001006</v>
+        <v>4001002</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="12">
@@ -4305,17 +4520,17 @@
         <v>100</v>
       </c>
       <c r="M18"/>
-      <c r="N18" s="12">
-        <v>1</v>
-      </c>
-      <c r="O18" s="12">
-        <v>1</v>
-      </c>
-      <c r="P18" s="12">
-        <v>100</v>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
       </c>
       <c r="Q18" s="12">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R18" s="12">
         <v>0</v>
@@ -4336,61 +4551,67 @@
         <v>65</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB18" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>175</v>
-      </c>
-      <c r="AE18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD18">
+        <v>100</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>10</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AG18">
         <v>5</v>
       </c>
-      <c r="AH18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+      <c r="AO18"/>
+      <c r="AP18"/>
       <c r="AT18" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
-        <v>4001007</v>
+        <v>4001003</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="12">
@@ -4403,17 +4624,17 @@
         <v>100</v>
       </c>
       <c r="M19"/>
-      <c r="N19" s="12">
-        <v>1</v>
-      </c>
-      <c r="O19" s="12">
-        <v>1</v>
-      </c>
-      <c r="P19" s="12">
-        <v>100</v>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>30</v>
+      </c>
+      <c r="P19">
+        <v>75</v>
       </c>
       <c r="Q19" s="12">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="R19" s="12">
         <v>0</v>
@@ -4434,61 +4655,67 @@
         <v>65</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB19" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>175</v>
-      </c>
-      <c r="AE19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD19">
+        <v>125</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>10</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AG19">
         <v>5</v>
       </c>
-      <c r="AH19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
       <c r="AT19" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AU19" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
-        <v>4001008</v>
+        <v>4001004</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="12">
@@ -4501,14 +4728,14 @@
         <v>100</v>
       </c>
       <c r="M20"/>
-      <c r="N20" s="12">
-        <v>1</v>
-      </c>
-      <c r="O20" s="12">
-        <v>1</v>
-      </c>
-      <c r="P20" s="12">
-        <v>150</v>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <v>75</v>
       </c>
       <c r="Q20" s="12">
         <v>75</v>
@@ -4532,61 +4759,67 @@
         <v>65</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB20" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD20" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD20">
         <v>150</v>
       </c>
-      <c r="AE20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="12">
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
         <v>10</v>
       </c>
-      <c r="AG20" s="12">
+      <c r="AG20">
         <v>5</v>
       </c>
-      <c r="AH20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
       <c r="AT20" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AU20" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
-        <v>4001009</v>
+        <v>4001005</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="12">
@@ -4599,17 +4832,17 @@
         <v>100</v>
       </c>
       <c r="M21"/>
-      <c r="N21" s="12">
-        <v>1</v>
-      </c>
-      <c r="O21" s="12">
-        <v>1</v>
-      </c>
-      <c r="P21" s="12">
-        <v>50</v>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <v>75</v>
       </c>
       <c r="Q21" s="12">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="R21" s="12">
         <v>0</v>
@@ -4630,61 +4863,67 @@
         <v>65</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB21" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD21" s="12">
-        <v>200</v>
-      </c>
-      <c r="AE21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD21">
+        <v>125</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
         <v>10</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AG21">
         <v>5</v>
       </c>
-      <c r="AH21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
       <c r="AT21" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AU21" s="10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
-        <v>4001010</v>
+        <v>4001006</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="12">
@@ -4697,17 +4936,17 @@
         <v>100</v>
       </c>
       <c r="M22"/>
-      <c r="N22" s="12">
-        <v>1</v>
-      </c>
-      <c r="O22" s="12">
-        <v>1</v>
-      </c>
-      <c r="P22" s="12">
-        <v>50</v>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
       </c>
       <c r="Q22" s="12">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="R22" s="12">
         <v>0</v>
@@ -4728,61 +4967,67 @@
         <v>65</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB22" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD22" s="12">
-        <v>200</v>
-      </c>
-      <c r="AE22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD22">
+        <v>175</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
         <v>10</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AG22">
         <v>5</v>
       </c>
-      <c r="AH22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
       <c r="AT22" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AU22" s="10" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
-        <v>4001011</v>
+        <v>4001007</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="12">
@@ -4795,17 +5040,17 @@
         <v>100</v>
       </c>
       <c r="M23"/>
-      <c r="N23" s="12">
-        <v>1</v>
-      </c>
-      <c r="O23" s="12">
-        <v>1</v>
-      </c>
-      <c r="P23" s="12">
-        <v>50</v>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
       </c>
       <c r="Q23" s="12">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="R23" s="12">
         <v>0</v>
@@ -4826,61 +5071,67 @@
         <v>65</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB23" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>200</v>
-      </c>
-      <c r="AE23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD23">
+        <v>175</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
         <v>10</v>
       </c>
-      <c r="AG23" s="12">
+      <c r="AG23">
         <v>5</v>
       </c>
-      <c r="AH23" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
       <c r="AT23" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AU23" s="10" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
-        <v>4001012</v>
+        <v>4001008</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="12">
@@ -4893,17 +5144,17 @@
         <v>100</v>
       </c>
       <c r="M24"/>
-      <c r="N24" s="12">
-        <v>1</v>
-      </c>
-      <c r="O24" s="12">
-        <v>1</v>
-      </c>
-      <c r="P24" s="12">
-        <v>50</v>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24">
+        <v>75</v>
       </c>
       <c r="Q24" s="12">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="R24" s="12">
         <v>0</v>
@@ -4924,61 +5175,67 @@
         <v>65</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB24" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD24" s="12">
-        <v>200</v>
-      </c>
-      <c r="AE24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD24">
+        <v>150</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>10</v>
       </c>
-      <c r="AG24" s="12">
+      <c r="AG24">
         <v>5</v>
       </c>
-      <c r="AH24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
       <c r="AT24" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AU24" s="10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
-        <v>4001013</v>
+        <v>4001009</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="12">
@@ -4991,14 +5248,14 @@
         <v>100</v>
       </c>
       <c r="M25"/>
-      <c r="N25" s="12">
-        <v>1</v>
-      </c>
-      <c r="O25" s="12">
-        <v>1</v>
-      </c>
-      <c r="P25" s="12">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>50</v>
+      </c>
+      <c r="P25">
+        <v>125</v>
       </c>
       <c r="Q25" s="12">
         <v>125</v>
@@ -5022,61 +5279,67 @@
         <v>65</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB25" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD25" s="12">
-        <v>150</v>
-      </c>
-      <c r="AE25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD25">
+        <v>200</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
         <v>10</v>
       </c>
-      <c r="AG25" s="12">
+      <c r="AG25">
         <v>5</v>
       </c>
-      <c r="AH25" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
       <c r="AT25" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AU25" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
-        <v>4001014</v>
+        <v>4001010</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="12">
@@ -5089,14 +5352,14 @@
         <v>100</v>
       </c>
       <c r="M26"/>
-      <c r="N26" s="12">
-        <v>1</v>
-      </c>
-      <c r="O26" s="12">
-        <v>1</v>
-      </c>
-      <c r="P26" s="12">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
         <v>50</v>
+      </c>
+      <c r="P26">
+        <v>125</v>
       </c>
       <c r="Q26" s="12">
         <v>125</v>
@@ -5120,61 +5383,67 @@
         <v>65</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB26" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD26" s="12">
-        <v>175</v>
-      </c>
-      <c r="AE26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD26">
+        <v>200</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
         <v>10</v>
       </c>
-      <c r="AG26" s="12">
+      <c r="AG26">
         <v>5</v>
       </c>
-      <c r="AH26" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="12">
-        <v>0</v>
-      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
       <c r="AT26" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="AU26" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
-        <v>4001015</v>
+        <v>4001011</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="12">
@@ -5187,17 +5456,17 @@
         <v>100</v>
       </c>
       <c r="M27"/>
-      <c r="N27" s="12">
-        <v>1</v>
-      </c>
-      <c r="O27" s="12">
-        <v>1</v>
-      </c>
-      <c r="P27" s="12">
-        <v>0</v>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <v>125</v>
       </c>
       <c r="Q27" s="12">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="R27" s="12">
         <v>0</v>
@@ -5218,36 +5487,506 @@
         <v>65</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB27" t="s">
-        <v>219</v>
-      </c>
-      <c r="AD27" s="12">
+        <v>194</v>
+      </c>
+      <c r="AD27">
+        <v>200</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>10</v>
+      </c>
+      <c r="AG27">
+        <v>5</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+      <c r="AO27"/>
+      <c r="AP27"/>
+      <c r="AT27" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU27" s="10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="16">
+        <v>4001012</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
         <v>100</v>
       </c>
-      <c r="AE27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="12">
+      <c r="M28"/>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>50</v>
+      </c>
+      <c r="P28">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>125</v>
+      </c>
+      <c r="R28" s="12">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12">
+        <v>1</v>
+      </c>
+      <c r="T28" s="12">
+        <v>0</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD28">
+        <v>200</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>10</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AG28">
         <v>5</v>
       </c>
-      <c r="AH27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU27" s="10" t="s">
-        <v>154</v>
-      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+      <c r="AO28"/>
+      <c r="AP28"/>
+      <c r="AT28" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU28" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A29" s="16">
+        <v>4001013</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>100</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>50</v>
+      </c>
+      <c r="P29">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>125</v>
+      </c>
+      <c r="R29" s="12">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12">
+        <v>1</v>
+      </c>
+      <c r="T29" s="12">
+        <v>0</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD29">
+        <v>150</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>10</v>
+      </c>
+      <c r="AG29">
+        <v>5</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AT29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU29" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="16">
+        <v>4001014</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>100</v>
+      </c>
+      <c r="M30"/>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>50</v>
+      </c>
+      <c r="P30">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>125</v>
+      </c>
+      <c r="R30" s="12">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12">
+        <v>1</v>
+      </c>
+      <c r="T30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD30">
+        <v>175</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>10</v>
+      </c>
+      <c r="AG30">
+        <v>5</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AT30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU30" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="16">
+        <v>4001015</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>100</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>30</v>
+      </c>
+      <c r="P31">
+        <v>100</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>100</v>
+      </c>
+      <c r="R31" s="12">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12">
+        <v>1</v>
+      </c>
+      <c r="T31" s="12">
+        <v>0</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD31">
+        <v>100</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>10</v>
+      </c>
+      <c r="AG31">
+        <v>5</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AT31" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU31" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
+      <c r="B32" s="21"/>
+      <c r="D32" s="9"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+      <c r="AL32"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+      <c r="AO32"/>
+      <c r="AP32"/>
+      <c r="AQ32"/>
+      <c r="AR32"/>
+      <c r="AS32"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19"/>

--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -945,7 +945,7 @@
     <t>Long Barrel+3</t>
   </si>
   <si>
-    <t>それは銃身を切り詰め、適正距離を-1する</t>
+    <t>それは銃身を切り詰め、適正距離が-1されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -964,7 +964,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を切り詰め、適正距離を-2する</t>
+    <t>それは銃身を切り詰め、適正距離が-2されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -983,7 +983,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を切り詰め、適正距離を-3する</t>
+    <t>それは銃身を切り詰め、適正距離が-3されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1002,7 +1002,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を切り詰め、適正距離を-4する</t>
+    <t>それは銃身を切り詰め、適正距離が-4されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1021,7 +1021,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を切り詰め、適正距離を-5する</t>
+    <t>それは銃身を切り詰め、適正距離が-5されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1040,7 +1040,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を伸ばし、適正距離を+1する</t>
+    <t>それは銃身を伸ばし、適正距離が+1されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1056,7 +1056,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を伸ばし、適正距離を+2する</t>
+    <t>それは銃身を伸ばし、適正距離が+2されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1072,7 +1072,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を伸ばし、適正距離を+3する</t>
+    <t>それは銃身を伸ばし、適正距離が+3されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1088,7 +1088,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を伸ばし、適正距離を+4する</t>
+    <t>それは銃身を伸ばし、適正距離が+4されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1104,7 +1104,7 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>それは銃身を伸ばし、適正距離を+5する</t>
+    <t>それは銃身を伸ばし、適正距離が+5されている</t>
     <rPh sb="3" eb="5">
       <t>ジュウシン</t>
     </rPh>
@@ -1120,35 +1120,35 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>It truncates the barrel, -3 to the proper distance</t>
-  </si>
-  <si>
-    <t>It truncates the barrel, -1 to the proper distance</t>
+    <t>It has an extended barrel and +1 proper distance</t>
+  </si>
+  <si>
+    <t>It has an extended barrel and +2 proper distance</t>
+  </si>
+  <si>
+    <t>It has an extended barrel and +3 proper distance</t>
+  </si>
+  <si>
+    <t>It has an extended barrel and +4 proper distance</t>
+  </si>
+  <si>
+    <t>It has an extended barrel and +5 proper distance</t>
+  </si>
+  <si>
+    <t>It has a truncated barrel and the proper distance is -1</t>
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>It truncates the barrel, -4 to the proper distance</t>
-  </si>
-  <si>
-    <t>It truncates the barrel, -5 to the proper distance</t>
-  </si>
-  <si>
-    <t>It truncates the barrel, -2 to the proper distance</t>
-  </si>
-  <si>
-    <t>It lengthens the barrel, +1 the proper distance</t>
-  </si>
-  <si>
-    <t>It lengthens the barrel, +2 the proper distance</t>
-  </si>
-  <si>
-    <t>It lengthens the barrel, +3 the proper distance</t>
-  </si>
-  <si>
-    <t>It lengthens the barrel, +4 the proper distance</t>
-  </si>
-  <si>
-    <t>It lengthens the barrel, +5 the proper distance</t>
+    <t>It has a truncated barrel and the proper distance is -2</t>
+  </si>
+  <si>
+    <t>It has a truncated barrel and the proper distance is -3</t>
+  </si>
+  <si>
+    <t>It has a truncated barrel and the proper distance is -4</t>
+  </si>
+  <si>
+    <t>It has a truncated barrel and the proper distance is -5</t>
   </si>
 </sst>
 </file>
@@ -2673,10 +2673,10 @@
   <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AT5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT9" sqref="AT9"/>
+      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2698,7 +2698,7 @@
     <col min="28" max="28" width="19.25" style="12" bestFit="1" customWidth="1"/>
     <col min="29" max="37" width="9" style="12"/>
     <col min="38" max="45" width="9" style="9"/>
-    <col min="46" max="46" width="35.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="40.125" style="9" customWidth="1"/>
     <col min="47" max="47" width="42.25" style="9" bestFit="1" customWidth="1"/>
     <col min="48" max="55" width="9" style="9"/>
     <col min="56" max="56" width="13.375" style="9" customWidth="1"/>
@@ -3354,7 +3354,7 @@
         <v>249</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
@@ -3455,7 +3455,7 @@
         <v>250</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
@@ -3556,7 +3556,7 @@
         <v>251</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.4">
@@ -3657,7 +3657,7 @@
         <v>252</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
@@ -3758,7 +3758,7 @@
         <v>253</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.4">
@@ -3859,7 +3859,7 @@
         <v>244</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
@@ -3962,7 +3962,7 @@
         <v>245</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="10"/>
@@ -4065,7 +4065,7 @@
         <v>246</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="10"/>
@@ -4168,7 +4168,7 @@
         <v>247</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
@@ -4271,7 +4271,7 @@
         <v>248</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>

--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="1" r:id="rId1"/>
-    <sheet name="elements" sheetId="2" r:id="rId2"/>
+    <sheet name="elements" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">recipes!$A$1:$K$1</definedName>
@@ -739,9 +739,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>itukiyu_modEX_eleFire</t>
-  </si>
-  <si>
     <t>itukiyu_modEX_eleCold</t>
   </si>
   <si>
@@ -1149,6 +1146,10 @@
   </si>
   <si>
     <t>It has a truncated barrel and the proper distance is -5</t>
+  </si>
+  <si>
+    <t>itukiyu_modEX_eleFire</t>
+    <phoneticPr fontId="19"/>
   </si>
 </sst>
 </file>
@@ -2673,10 +2674,10 @@
   <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AT5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT7" sqref="AT7"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3261,13 +3262,13 @@
         <v>4000001</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
@@ -3351,10 +3352,10 @@
       <c r="AR6"/>
       <c r="AS6"/>
       <c r="AT6" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.4">
@@ -3362,13 +3363,13 @@
         <v>4000002</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
@@ -3452,10 +3453,10 @@
       <c r="AR7"/>
       <c r="AS7"/>
       <c r="AT7" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AU7" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.4">
@@ -3463,13 +3464,13 @@
         <v>4000003</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -3553,10 +3554,10 @@
       <c r="AR8"/>
       <c r="AS8"/>
       <c r="AT8" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AU8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.4">
@@ -3564,13 +3565,13 @@
         <v>4000004</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -3654,10 +3655,10 @@
       <c r="AR9"/>
       <c r="AS9"/>
       <c r="AT9" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.4">
@@ -3665,13 +3666,13 @@
         <v>4000005</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -3755,10 +3756,10 @@
       <c r="AR10"/>
       <c r="AS10"/>
       <c r="AT10" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.4">
@@ -3766,13 +3767,13 @@
         <v>4000011</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -3856,10 +3857,10 @@
       <c r="AR11"/>
       <c r="AS11"/>
       <c r="AT11" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AU11" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
@@ -3869,13 +3870,13 @@
         <v>4000012</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -3959,10 +3960,10 @@
       <c r="AR12"/>
       <c r="AS12"/>
       <c r="AT12" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AU12" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="10"/>
@@ -3972,13 +3973,13 @@
         <v>4000013</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -4062,10 +4063,10 @@
       <c r="AR13"/>
       <c r="AS13"/>
       <c r="AT13" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AU13" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="10"/>
@@ -4075,13 +4076,13 @@
         <v>4000014</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -4165,10 +4166,10 @@
       <c r="AR14"/>
       <c r="AS14"/>
       <c r="AT14" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AU14" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
@@ -4178,13 +4179,13 @@
         <v>4000015</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -4268,10 +4269,10 @@
       <c r="AR15"/>
       <c r="AS15"/>
       <c r="AT15" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AU15" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
@@ -4281,10 +4282,10 @@
         <v>4001000</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>66</v>
@@ -4385,7 +4386,7 @@
         <v>4001001</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>70</v>
@@ -4489,7 +4490,7 @@
         <v>4001002</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>73</v>
@@ -4593,7 +4594,7 @@
         <v>4001003</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>76</v>
@@ -4697,7 +4698,7 @@
         <v>4001004</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>79</v>
@@ -4801,7 +4802,7 @@
         <v>4001005</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>83</v>
@@ -4905,7 +4906,7 @@
         <v>4001006</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>87</v>
@@ -5009,7 +5010,7 @@
         <v>4001007</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>91</v>
@@ -5113,7 +5114,7 @@
         <v>4001008</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>95</v>
@@ -5217,7 +5218,7 @@
         <v>4001009</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>99</v>
@@ -5321,7 +5322,7 @@
         <v>4001010</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>103</v>
@@ -5425,7 +5426,7 @@
         <v>4001011</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>106</v>
@@ -5529,7 +5530,7 @@
         <v>4001012</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>109</v>
@@ -5633,7 +5634,7 @@
         <v>4001013</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>112</v>
@@ -5737,7 +5738,7 @@
         <v>4001014</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>115</v>
@@ -5841,7 +5842,7 @@
         <v>4001015</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>119</v>

--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="368">
   <si>
     <t>id</t>
   </si>
@@ -1151,6 +1151,1850 @@
     <t>itukiyu_modEX_eleFire</t>
     <phoneticPr fontId="19"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>name_CN</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>name_ZHTW</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>name_KR</t>
+    <phoneticPr fontId="26"/>
+  </si>
+  <si>
+    <t>textPhase_CN</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>textPhase_ZHTW</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>textPhase_KR</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>신경</t>
+  </si>
+  <si>
+    <r>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桶+1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桶+2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桶+3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桶+4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>桶+5</t>
+    </r>
+  </si>
+  <si>
+    <t>短桶-1</t>
+  </si>
+  <si>
+    <t>短桶-2</t>
+  </si>
+  <si>
+    <t>短桶-3</t>
+  </si>
+  <si>
+    <t>短桶-4</t>
+  </si>
+  <si>
+    <t>短桶-5</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>闪电</t>
+  </si>
+  <si>
+    <t>黑暗</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>阴</t>
+  </si>
+  <si>
+    <t>声音</t>
+  </si>
+  <si>
+    <r>
+      <t>神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经</t>
+    </r>
+  </si>
+  <si>
+    <t>神圣</t>
+  </si>
+  <si>
+    <t>以太</t>
+  </si>
+  <si>
+    <t>切割</t>
+  </si>
+  <si>
+    <r>
+      <t>冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击</t>
+    </r>
+  </si>
+  <si>
+    <t>長管+1</t>
+  </si>
+  <si>
+    <t>長管+2</t>
+  </si>
+  <si>
+    <t>長管+3</t>
+  </si>
+  <si>
+    <t>長管+4</t>
+  </si>
+  <si>
+    <t>長管+5</t>
+  </si>
+  <si>
+    <t>短管-1</t>
+  </si>
+  <si>
+    <t>短管-2</t>
+  </si>
+  <si>
+    <t>短管-3</t>
+  </si>
+  <si>
+    <t>短管-4</t>
+  </si>
+  <si>
+    <t>短管-5</t>
+  </si>
+  <si>
+    <t>寒冷</t>
+  </si>
+  <si>
+    <t>閃電</t>
+  </si>
+  <si>
+    <t>心靈</t>
+  </si>
+  <si>
+    <t>毒藥</t>
+  </si>
+  <si>
+    <t>幽冥</t>
+  </si>
+  <si>
+    <t>聲音</t>
+  </si>
+  <si>
+    <t>神經</t>
+  </si>
+  <si>
+    <t>乙太</t>
+  </si>
+  <si>
+    <t>衝擊</t>
+  </si>
+  <si>
+    <t>加長槍管，+1 適當距離</t>
+  </si>
+  <si>
+    <t>加長槍管，+2 適當距離</t>
+  </si>
+  <si>
+    <t>加長槍管，+3 適當距離</t>
+  </si>
+  <si>
+    <t>加長槍管，+4 適當距離</t>
+  </si>
+  <si>
+    <t>砲管被截斷，正確距離為 -2</t>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，距离+3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管截短，适当距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管截短，适当距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，距离+2</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，距离+1</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>，距离+4</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>枪管加长，距离+5</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管截短，适当距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管截短，适当距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-4</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>管截短，适当距离</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NSimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-5</t>
+    </r>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>砲管被截斷，正確距離為 -1</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>砲管被截斷，正確距離為 -3</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>砲管被截斷，正確距離為 -4</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>砲管被截斷，正確距離為 -5</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>加長槍管，+5 適當距離</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <r>
+      <t>연장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배럴과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> +1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가집니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>연장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포신과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> +2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가집니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>연장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포신과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> +3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가집니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>연장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포신과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> +4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가집니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>연장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포신과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> +5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가집니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배럴이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배럴이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배럴이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배럴이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>잘린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배럴이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적절한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> -5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>긴 총신 +1</t>
+  </si>
+  <si>
+    <t>긴 총신 +2</t>
+  </si>
+  <si>
+    <t>긴 총신+3</t>
+  </si>
+  <si>
+    <t>긴 총신 +4</t>
+  </si>
+  <si>
+    <t>긴 총신 +5</t>
+  </si>
+  <si>
+    <t>짧은 총신 -1</t>
+  </si>
+  <si>
+    <t>짧은 총신 -2</t>
+  </si>
+  <si>
+    <t>짧은 총신-3</t>
+  </si>
+  <si>
+    <t>짧은 총신-4</t>
+  </si>
+  <si>
+    <t>짧은 총신 -5</t>
+  </si>
+  <si>
+    <t>화염</t>
+  </si>
+  <si>
+    <t>냉기</t>
+  </si>
+  <si>
+    <t>전광석화</t>
+  </si>
+  <si>
+    <t>암흑</t>
+  </si>
+  <si>
+    <t>환각</t>
+  </si>
+  <si>
+    <t>독</t>
+  </si>
+  <si>
+    <t>지옥</t>
+  </si>
+  <si>
+    <t>포효</t>
+  </si>
+  <si>
+    <t>신성</t>
+  </si>
+  <si>
+    <t>혼돈</t>
+  </si>
+  <si>
+    <t>마법</t>
+  </si>
+  <si>
+    <t>에테르</t>
+  </si>
+  <si>
+    <t>산</t>
+  </si>
+  <si>
+    <t>출혈</t>
+  </si>
+  <si>
+    <t>충격</t>
+  </si>
 </sst>
 </file>
 
@@ -1159,7 +3003,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,6 +3211,33 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="NSimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1806,7 +3677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1858,6 +3729,16 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2671,13 +4552,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK32"/>
+  <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2704,10 +4585,16 @@
     <col min="48" max="55" width="9" style="9"/>
     <col min="56" max="56" width="13.375" style="9" customWidth="1"/>
     <col min="57" max="57" width="9" style="9"/>
-    <col min="58" max="16384" width="9" style="12"/>
+    <col min="58" max="61" width="9" style="12"/>
+    <col min="62" max="62" width="13.25" style="12" customWidth="1"/>
+    <col min="63" max="63" width="25.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11" style="12" customWidth="1"/>
+    <col min="65" max="65" width="28.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.5" style="12" customWidth="1"/>
+    <col min="67" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:67" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2879,8 +4766,26 @@
       <c r="BE1" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="BJ1" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="BK1" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="BL1" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="BM1" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="BN1" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO1" s="23" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:67" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>187</v>
       </c>
@@ -3052,8 +4957,20 @@
       <c r="BE2" s="13" t="s">
         <v>186</v>
       </c>
+      <c r="BF2" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>264</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.4">
       <c r="B3" s="16"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -3119,7 +5036,7 @@
       <c r="BJ3" s="8"/>
       <c r="BK3" s="8"/>
     </row>
-    <row r="4" spans="1:63" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:67" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18">
         <v>4000000</v>
       </c>
@@ -3188,7 +5105,7 @@
       <c r="BJ4" s="19"/>
       <c r="BK4" s="19"/>
     </row>
-    <row r="5" spans="1:63" s="20" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:67" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18">
         <v>4199999</v>
       </c>
@@ -3257,7 +5174,7 @@
       <c r="BJ5" s="19"/>
       <c r="BK5" s="19"/>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>4000001</v>
       </c>
@@ -3357,8 +5274,26 @@
       <c r="AU6" s="10" t="s">
         <v>253</v>
       </c>
+      <c r="BJ6" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="BK6" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="BL6" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="BM6" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="BN6" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="BO6" s="24" t="s">
+        <v>333</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>4000002</v>
       </c>
@@ -3458,8 +5393,26 @@
       <c r="AU7" s="10" t="s">
         <v>254</v>
       </c>
+      <c r="BJ7" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="BK7" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL7" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="BM7" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN7" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="BO7" s="24" t="s">
+        <v>334</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <v>4000003</v>
       </c>
@@ -3559,8 +5512,26 @@
       <c r="AU8" s="10" t="s">
         <v>255</v>
       </c>
+      <c r="BJ8" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK8" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="BL8" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM8" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="BN8" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="BO8" s="24" t="s">
+        <v>335</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>4000004</v>
       </c>
@@ -3660,8 +5631,26 @@
       <c r="AU9" s="10" t="s">
         <v>256</v>
       </c>
+      <c r="BJ9" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK9" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="BM9" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="BN9" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="BO9" s="24" t="s">
+        <v>336</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <v>4000005</v>
       </c>
@@ -3761,8 +5750,26 @@
       <c r="AU10" s="10" t="s">
         <v>257</v>
       </c>
+      <c r="BJ10" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK10" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="BL10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="BM10" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="BN10" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="BO10" s="24" t="s">
+        <v>337</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>4000011</v>
       </c>
@@ -3864,8 +5871,26 @@
       </c>
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
+      <c r="BJ11" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="BK11" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="BL11" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="BM11" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="BN11" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="BO11" s="24" t="s">
+        <v>338</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <v>4000012</v>
       </c>
@@ -3967,8 +5992,26 @@
       </c>
       <c r="AV12" s="10"/>
       <c r="AW12" s="10"/>
+      <c r="BJ12" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="BK12" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL12" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="BM12" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="BN12" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="BO12" s="24" t="s">
+        <v>339</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>4000013</v>
       </c>
@@ -4070,8 +6113,26 @@
       </c>
       <c r="AV13" s="10"/>
       <c r="AW13" s="10"/>
+      <c r="BJ13" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="BK13" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL13" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM13" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="BN13" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="BO13" s="24" t="s">
+        <v>340</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>4000014</v>
       </c>
@@ -4173,8 +6234,26 @@
       </c>
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
+      <c r="BJ14" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="BK14" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="BL14" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="BN14" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="BO14" s="24" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:67" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>4000015</v>
       </c>
@@ -4276,8 +6355,26 @@
       </c>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
+      <c r="BJ15" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="BK15" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL15" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="BM15" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="BN15" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="BO15" s="24" t="s">
+        <v>342</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:67" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>4001000</v>
       </c>
@@ -4380,8 +6477,17 @@
       <c r="AU16" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="BJ16" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="BL16" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="BN16" s="24" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>4001001</v>
       </c>
@@ -4484,8 +6590,17 @@
       <c r="AU17" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="BJ17" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="BL17" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN17" s="24" t="s">
+        <v>354</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>4001002</v>
       </c>
@@ -4588,8 +6703,17 @@
       <c r="AU18" s="10" t="s">
         <v>140</v>
       </c>
+      <c r="BJ18" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="BL18" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN18" s="24" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="19" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>4001003</v>
       </c>
@@ -4692,8 +6816,17 @@
       <c r="AU19" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="BJ19" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="BL19" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="BN19" s="24" t="s">
+        <v>356</v>
+      </c>
     </row>
-    <row r="20" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>4001004</v>
       </c>
@@ -4796,8 +6929,17 @@
       <c r="AU20" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="BJ20" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="BL20" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="BN20" s="24" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="21" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>4001005</v>
       </c>
@@ -4900,8 +7042,17 @@
       <c r="AU21" s="10" t="s">
         <v>143</v>
       </c>
+      <c r="BJ21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL21" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="BN21" s="24" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="22" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>4001006</v>
       </c>
@@ -5004,8 +7155,17 @@
       <c r="AU22" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="BJ22" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="BL22" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="BN22" s="24" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="23" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>4001007</v>
       </c>
@@ -5108,8 +7268,17 @@
       <c r="AU23" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="BJ23" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="BL23" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="BN23" s="24" t="s">
+        <v>360</v>
+      </c>
     </row>
-    <row r="24" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>4001008</v>
       </c>
@@ -5212,8 +7381,17 @@
       <c r="AU24" s="10" t="s">
         <v>146</v>
       </c>
+      <c r="BJ24" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL24" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="BN24" s="24" t="s">
+        <v>271</v>
+      </c>
     </row>
-    <row r="25" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>4001009</v>
       </c>
@@ -5316,8 +7494,17 @@
       <c r="AU25" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="BJ25" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL25" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN25" s="24" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="26" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>4001010</v>
       </c>
@@ -5420,8 +7607,17 @@
       <c r="AU26" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="BJ26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BL26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN26" s="24" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="27" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>4001011</v>
       </c>
@@ -5524,8 +7720,17 @@
       <c r="AU27" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="BJ27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN27" s="24" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="28" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>4001012</v>
       </c>
@@ -5628,8 +7833,17 @@
       <c r="AU28" s="10" t="s">
         <v>150</v>
       </c>
+      <c r="BJ28" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="BL28" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="BN28" s="24" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>4001013</v>
       </c>
@@ -5732,8 +7946,17 @@
       <c r="AU29" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="BJ29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN29" s="24" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="30" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>4001014</v>
       </c>
@@ -5836,8 +8059,17 @@
       <c r="AU30" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="BJ30" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="BL30" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="BN30" s="24" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="31" spans="1:47" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:66" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>4001015</v>
       </c>
@@ -5940,8 +8172,17 @@
       <c r="AU31" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="BJ31" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="BL31" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN31" s="24" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.4">
       <c r="A32" s="16"/>
       <c r="B32" s="21"/>
       <c r="D32" s="9"/>

--- a/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
+++ b/Elin_ExGunMods/data/resource/tables/add_datas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\prj\mydev\ElinMod\Elin_ExGunMods\data\resource\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\prj\mydev\Elin\ElinMod\Elin_ExGunMods\data\resource\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4555,10 +4555,10 @@
   <dimension ref="A1:BO32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BF2" sqref="BF2"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
